--- a/VAR_param.xlsx
+++ b/VAR_param.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haakonat\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haako\Desktop\Dropbox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48599697-A41A-473B-A24F-F6B7CE0F2FD2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2847C1E8-3B90-467F-B647-A2000DCAD513}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23805" yWindow="6720" windowWidth="28800" windowHeight="15435" xr2:uid="{FC7ADD0E-0206-420E-91BF-C42EE8C71953}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{FC7ADD0E-0206-420E-91BF-C42EE8C71953}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="2" r:id="rId1"/>
@@ -197,13 +197,13 @@
     <t>1.1923</t>
   </si>
   <si>
-    <t>1.9231</t>
-  </si>
-  <si>
-    <t>1.992</t>
-  </si>
-  <si>
     <t>1.2043</t>
+  </si>
+  <si>
+    <t>1.19231</t>
+  </si>
+  <si>
+    <t>1.1992</t>
   </si>
 </sst>
 </file>
@@ -211,7 +211,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -253,7 +253,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -273,7 +273,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -572,10 +572,10 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
@@ -633,13 +633,13 @@
         <v>53</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
